--- a/lcms/v4.0.0/lcms-v4.0.0.xlsx
+++ b/lcms/v4.0.0/lcms-v4.0.0.xlsx
@@ -42,11 +42,12 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) HuBMAP ID of the sample (i.e., block, section or suspension) used to
-perform this assay. For example, for a RNAseq assay, the parent would be the
-suspension, whereas this would be the HuBMAP ID of a section for one of the
-imaging assays. If an assay comes from multiple parent samples then this should
-be a comma separated list. Example: HBM765.TRHD.452</t>
+        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
+section or suspension) used to perform this assay. For example, for a RNAseq
+assay, the parent would be the suspension, whereas, for one of the imaging
+assays, the parent would be the tissue section. If an assay comes from multiple
+parent samples then this should be a comma separated list. Example:
+HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -1362,7 +1363,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-20T20:01:32-07:00</t>
+    <t>2023-10-27T18:10:56-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/lcms/v4.0.0/lcms-v4.0.0.xlsx
+++ b/lcms/v4.0.0/lcms-v4.0.0.xlsx
@@ -335,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="350">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -361,960 +361,975 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
+    <t>MIBI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
+  </si>
+  <si>
+    <t>scATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
+  </si>
+  <si>
+    <t>Auto-fluorescence</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+  </si>
+  <si>
+    <t>scRNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
+  </si>
+  <si>
+    <t>Xenium</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
+  </si>
+  <si>
+    <t>snATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
+  </si>
+  <si>
+    <t>Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
+  </si>
+  <si>
+    <t>CosMx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
+    <t>DBiT</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
+  </si>
+  <si>
+    <t>SIMS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
+  </si>
+  <si>
+    <t>RNAseq (Visium)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000188</t>
+  </si>
+  <si>
+    <t>Cell DIVE</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000159</t>
+  </si>
+  <si>
+    <t>CODEX</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
+  </si>
+  <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>GeoMx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
+  </si>
+  <si>
+    <t>RNAseq (bulk)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
+  </si>
+  <si>
+    <t>MALDI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
+  </si>
+  <si>
+    <t>2D Imaging Mass Cytometry</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
+  </si>
+  <si>
+    <t>RNAseq (GeoMx)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
+  </si>
+  <si>
+    <t>Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000197</t>
+  </si>
+  <si>
+    <t>Enhanced Stimulated Raman Spectroscopy (SRS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
+  </si>
+  <si>
+    <t>ATACseq (bulk)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>snRNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
+  </si>
+  <si>
+    <t>Visium</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000187</t>
+  </si>
+  <si>
+    <t>analyte_class</t>
+  </si>
+  <si>
+    <t>Chromatin</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
+  </si>
+  <si>
+    <t>Nucleic acid and protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
+    <t>Fluorochrome</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_51217</t>
+  </si>
+  <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
+  </si>
+  <si>
+    <t>Metabolite</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
+  </si>
+  <si>
+    <t>Endogenous fluorophores</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000131</t>
+  </si>
+  <si>
+    <t>Peptide</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
+  </si>
+  <si>
+    <t>Polysaccharide</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
+  </si>
+  <si>
+    <t>Lipid</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
+  </si>
+  <si>
+    <t>is_targeted</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>acquisition_instrument_vendor</t>
+  </si>
+  <si>
+    <t>Resolve Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023911</t>
+  </si>
+  <si>
+    <t>Cytiva</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023581</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008452</t>
+  </si>
+  <si>
+    <t>Zeiss Microscopy</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023607</t>
+  </si>
+  <si>
+    <t>Standard BioTools (Fluidigm)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023606</t>
+  </si>
+  <si>
+    <t>Sciex</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023651</t>
+  </si>
+  <si>
+    <t>Bruker</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017365</t>
+  </si>
+  <si>
+    <t>Keyence</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023604</t>
+  </si>
+  <si>
+    <t>Leica Biosystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023603</t>
+  </si>
+  <si>
+    <t>NanoString</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023912</t>
+  </si>
+  <si>
+    <t>Hamamatsu</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017105</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023609</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_010233</t>
+  </si>
+  <si>
+    <t>Ionpath</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023605</t>
+  </si>
+  <si>
+    <t>acquisition_instrument_model</t>
+  </si>
+  <si>
+    <t>SCN400</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023611</t>
+  </si>
+  <si>
+    <t>STELLARIS 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024663</t>
+  </si>
+  <si>
+    <t>BZ-X710</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017202</t>
+  </si>
+  <si>
+    <t>NanoZoomer S210</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023760</t>
+  </si>
+  <si>
+    <t>Axio Observer 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023694</t>
+  </si>
+  <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
+    <t>IN Cell Analyzer 2200</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023616</t>
+  </si>
+  <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024448</t>
+  </si>
+  <si>
+    <t>Orbitrap Fusion Lumos Tribrid</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020562</t>
+  </si>
+  <si>
+    <t>Resolve Biosciences Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024449</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
+    <t>MALDI timsTOF Flex Prototype</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023615</t>
+  </si>
+  <si>
+    <t>Axio Observer 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023692</t>
+  </si>
+  <si>
+    <t>Axio Observer 3</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023693</t>
+  </si>
+  <si>
+    <t>HiSeq 2500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016383</t>
+  </si>
+  <si>
+    <t>Orbitrap Eclipse Tribrid</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023618</t>
+  </si>
+  <si>
+    <t>Q Exactive UHMR</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020571</t>
+  </si>
+  <si>
+    <t>NextSeq 2000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023614</t>
+  </si>
+  <si>
+    <t>NovaSeq 6000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016387</t>
+  </si>
+  <si>
+    <t>Q Exactive</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020565</t>
+  </si>
+  <si>
+    <t>Zyla 4.2 sCMOS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023610</t>
+  </si>
+  <si>
+    <t>HiSeq 4000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016386</t>
+  </si>
+  <si>
+    <t>QTRAP 5500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020517</t>
+  </si>
+  <si>
+    <t>BZ-X800</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023617</t>
+  </si>
+  <si>
+    <t>MIBIscope</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023613</t>
+  </si>
+  <si>
+    <t>NextSeq 500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_014983</t>
+  </si>
+  <si>
+    <t>NanoZoomer S360</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023761</t>
+  </si>
+  <si>
+    <t>NanoZoomer S60</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023762</t>
+  </si>
+  <si>
+    <t>CosMx Spatial Molecular Imager</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023909</t>
+  </si>
+  <si>
+    <t>Hyperion Imaging System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023195</t>
+  </si>
+  <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
+    <t>NextSeq 550</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016381</t>
+  </si>
+  <si>
+    <t>Digital Spatial Profiler</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021660</t>
+  </si>
+  <si>
+    <t>Axio Scan.Z1</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020927</t>
+  </si>
+  <si>
+    <t>Q Exactive HF</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020558</t>
+  </si>
+  <si>
+    <t>Xenium Analyzer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023910</t>
+  </si>
+  <si>
+    <t>source_storage_duration_value</t>
+  </si>
+  <si>
+    <t>source_storage_duration_unit</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000032</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000035</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000036</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000033</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000031</t>
+  </si>
+  <si>
+    <t>time_since_acquisition_instrument_calibration_value</t>
+  </si>
+  <si>
+    <t>time_since_acquisition_instrument_calibration_unit</t>
+  </si>
+  <si>
+    <t>contributors_path</t>
+  </si>
+  <si>
+    <t>data_path</t>
+  </si>
+  <si>
+    <t>ms_ionization_technique</t>
+  </si>
+  <si>
+    <t>LDI</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000393</t>
+  </si>
+  <si>
+    <t>SIMS-H20</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000281</t>
+  </si>
+  <si>
+    <t>HESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000289</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C111241</t>
+  </si>
+  <si>
+    <t>nanoDESI</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0003101</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000075</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1002011</t>
+  </si>
+  <si>
+    <t>SIMS-C60</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000280</t>
+  </si>
+  <si>
+    <t>ESI</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C19363</t>
+  </si>
+  <si>
+    <t>MALDI-2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000279</t>
+  </si>
+  <si>
+    <t>ms_scan_mode</t>
+  </si>
+  <si>
+    <t>MS3</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000230</t>
+  </si>
+  <si>
+    <t>MS2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000229</t>
+  </si>
+  <si>
+    <t>MS1</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000228</t>
+  </si>
+  <si>
+    <t>mass_analysis_polarity</t>
+  </si>
+  <si>
+    <t>Negative ion mode</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000276</t>
+  </si>
+  <si>
+    <t>Negative and positive ion mode</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000278</t>
+  </si>
+  <si>
+    <t>Positive ion mode</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000277</t>
+  </si>
+  <si>
+    <t>mass_to_charge_range_low_value</t>
+  </si>
+  <si>
+    <t>mass_to_charge_range_high_value</t>
+  </si>
+  <si>
+    <t>mass_resolving_power</t>
+  </si>
+  <si>
+    <t>mass_to_charge_resolving_power</t>
+  </si>
+  <si>
+    <t>ion_mobility</t>
+  </si>
+  <si>
+    <t>cIMS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000227</t>
+  </si>
+  <si>
+    <t>DTIMS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000225</t>
+  </si>
+  <si>
+    <t>SLIM</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000226</t>
+  </si>
+  <si>
+    <t>TWIMS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000223</t>
+  </si>
+  <si>
+    <t>TIMS</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C158244</t>
+  </si>
+  <si>
+    <t>FAIMS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000224</t>
+  </si>
+  <si>
+    <t>data_collection_mode</t>
+  </si>
+  <si>
+    <t>DDA</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C161785</t>
+  </si>
+  <si>
+    <t>PRM</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C161788</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C161786</t>
+  </si>
+  <si>
+    <t>SRM</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C161787</t>
+  </si>
+  <si>
+    <t>label_name</t>
+  </si>
+  <si>
+    <t>lc_instrument_vendor</t>
+  </si>
+  <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
+    <t>Evosep</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024590</t>
+  </si>
+  <si>
+    <t>Agilent Technologies</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_013575</t>
+  </si>
+  <si>
+    <t>Waters</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024589</t>
+  </si>
+  <si>
+    <t>lc_instrument_model</t>
+  </si>
+  <si>
+    <t>lc_column_vendor</t>
+  </si>
+  <si>
+    <t>IonOpticks</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024593</t>
+  </si>
+  <si>
+    <t>lc_column_model</t>
+  </si>
+  <si>
+    <t>lc_resin</t>
+  </si>
+  <si>
+    <t>lc_column_length_value</t>
+  </si>
+  <si>
+    <t>lc_column_length_unit</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000016</t>
+  </si>
+  <si>
+    <t>um</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000017</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000015</t>
+  </si>
+  <si>
+    <t>lc_temperature_value</t>
+  </si>
+  <si>
+    <t>lc_temperature_unit</t>
+  </si>
+  <si>
+    <t>celsius</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000027</t>
+  </si>
+  <si>
+    <t>lc_inner_diameter_value</t>
+  </si>
+  <si>
+    <t>lc_inner_diameter_unit</t>
+  </si>
+  <si>
+    <t>lc_flow_rate_value</t>
+  </si>
+  <si>
+    <t>lc_flow_rate_unit</t>
+  </si>
+  <si>
+    <t>mL/min</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000290</t>
+  </si>
+  <si>
+    <t>nL/min</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000275</t>
+  </si>
+  <si>
+    <t>lc_gradient_value</t>
+  </si>
+  <si>
+    <t>lc_gradient_unit</t>
+  </si>
+  <si>
+    <t>lc_mobile_phase_a</t>
+  </si>
+  <si>
+    <t>lc_mobile_phase_b</t>
+  </si>
+  <si>
+    <t>spatial_sampling_technique</t>
+  </si>
+  <si>
+    <t>microPOTS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000293</t>
+  </si>
+  <si>
+    <t>nanoSPLITS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000297</t>
+  </si>
+  <si>
+    <t>LESA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000291</t>
+  </si>
+  <si>
+    <t>microLESA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000292</t>
+  </si>
+  <si>
     <t>nanoPOTS</t>
   </si>
   <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
-  </si>
-  <si>
-    <t>MIBI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
-  </si>
-  <si>
-    <t>scATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
-  </si>
-  <si>
-    <t>Auto-fluorescence</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
-  </si>
-  <si>
-    <t>Confocal</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
-  </si>
-  <si>
-    <t>scRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
-  </si>
-  <si>
-    <t>Xenium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
-  </si>
-  <si>
-    <t>snATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
-  </si>
-  <si>
-    <t>Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
-  </si>
-  <si>
-    <t>CosMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
-    <t>DBiT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
-  </si>
-  <si>
-    <t>SIMS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
-  </si>
-  <si>
-    <t>RNAseq (Visium)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000188</t>
-  </si>
-  <si>
-    <t>Cell DIVE</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000159</t>
-  </si>
-  <si>
-    <t>CODEX</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
-  </si>
-  <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
-  </si>
-  <si>
-    <t>NanoDESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
-  </si>
-  <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
-    <t>RNAseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
-  </si>
-  <si>
-    <t>MALDI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
-  </si>
-  <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
-  </si>
-  <si>
-    <t>Histology</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000197</t>
-  </si>
-  <si>
-    <t>Enhanced Stimulated Raman Spectroscopy (SRS)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
-  </si>
-  <si>
-    <t>ATACseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
-  </si>
-  <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
-    <t>snRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
-  </si>
-  <si>
-    <t>Visium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000187</t>
-  </si>
-  <si>
-    <t>analyte_class</t>
-  </si>
-  <si>
-    <t>Chromatin</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
-  </si>
-  <si>
-    <t>Nucleic acid and protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
-    <t>Fluorochrome</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_51217</t>
-  </si>
-  <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
-  </si>
-  <si>
-    <t>Metabolite</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
-  </si>
-  <si>
-    <t>DNA</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
-  </si>
-  <si>
-    <t>Endogenous fluorophores</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000131</t>
-  </si>
-  <si>
-    <t>Peptide</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
-  </si>
-  <si>
-    <t>Polysaccharide</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
-  </si>
-  <si>
-    <t>Lipid</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
-  </si>
-  <si>
-    <t>is_targeted</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>acquisition_instrument_vendor</t>
-  </si>
-  <si>
-    <t>Resolve Biosciences</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023911</t>
-  </si>
-  <si>
-    <t>Cytiva</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023581</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008452</t>
-  </si>
-  <si>
-    <t>Zeiss Microscopy</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023607</t>
-  </si>
-  <si>
-    <t>Standard BioTools (Fluidigm)</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023606</t>
-  </si>
-  <si>
-    <t>Sciex</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023651</t>
-  </si>
-  <si>
-    <t>Bruker</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_017365</t>
-  </si>
-  <si>
-    <t>Keyence</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023604</t>
-  </si>
-  <si>
-    <t>Leica Biosystems</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023603</t>
-  </si>
-  <si>
-    <t>NanoString</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023912</t>
-  </si>
-  <si>
-    <t>Hamamatsu</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_017105</t>
-  </si>
-  <si>
-    <t>Andor</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023609</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_010233</t>
-  </si>
-  <si>
-    <t>Ionpath</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023605</t>
-  </si>
-  <si>
-    <t>acquisition_instrument_model</t>
-  </si>
-  <si>
-    <t>SCN400</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023611</t>
-  </si>
-  <si>
-    <t>BZ-X710</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_017202</t>
-  </si>
-  <si>
-    <t>NanoZoomer S210</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023760</t>
-  </si>
-  <si>
-    <t>Axio Observer 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023694</t>
-  </si>
-  <si>
-    <t>NovaSeq X</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024569</t>
-  </si>
-  <si>
-    <t>IN Cell Analyzer 2200</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023616</t>
-  </si>
-  <si>
-    <t>NanoZoomer 2.0-HT</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021658</t>
-  </si>
-  <si>
-    <t>Lightsheet 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024448</t>
-  </si>
-  <si>
-    <t>Orbitrap Fusion Lumos Tribrid</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020562</t>
-  </si>
-  <si>
-    <t>Resolve Biosciences Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024449</t>
-  </si>
-  <si>
-    <t>MALDI timsTOF Flex Prototype</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023615</t>
-  </si>
-  <si>
-    <t>Axio Observer 5</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023692</t>
-  </si>
-  <si>
-    <t>Axio Observer 3</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023693</t>
-  </si>
-  <si>
-    <t>HiSeq 2500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016383</t>
-  </si>
-  <si>
-    <t>Orbitrap Eclipse Tribrid</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023618</t>
-  </si>
-  <si>
-    <t>Q Exactive UHMR</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020571</t>
-  </si>
-  <si>
-    <t>NextSeq 2000</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023614</t>
-  </si>
-  <si>
-    <t>NovaSeq 6000</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016387</t>
-  </si>
-  <si>
-    <t>Q Exactive</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020565</t>
-  </si>
-  <si>
-    <t>Zyla 4.2 sCMOS</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023610</t>
-  </si>
-  <si>
-    <t>HiSeq 4000</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016386</t>
-  </si>
-  <si>
-    <t>QTRAP 5500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020517</t>
-  </si>
-  <si>
-    <t>BZ-X800</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023617</t>
-  </si>
-  <si>
-    <t>MIBIscope</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023613</t>
-  </si>
-  <si>
-    <t>NextSeq 500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_014983</t>
-  </si>
-  <si>
-    <t>NanoZoomer S360</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023761</t>
-  </si>
-  <si>
-    <t>NanoZoomer S60</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023762</t>
-  </si>
-  <si>
-    <t>CosMx Spatial Molecular Imager</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023909</t>
-  </si>
-  <si>
-    <t>Hyperion Imaging System</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023195</t>
-  </si>
-  <si>
-    <t>NovaSeq X Plus</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024568</t>
-  </si>
-  <si>
-    <t>NanoZoomer-SQ</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023763</t>
-  </si>
-  <si>
-    <t>NextSeq 550</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016381</t>
-  </si>
-  <si>
-    <t>Digital Spatial Profiler</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021660</t>
-  </si>
-  <si>
-    <t>Axio Scan.Z1</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020927</t>
-  </si>
-  <si>
-    <t>Q Exactive HF</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020558</t>
-  </si>
-  <si>
-    <t>Xenium Analyzer</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023910</t>
-  </si>
-  <si>
-    <t>source_storage_duration_value</t>
-  </si>
-  <si>
-    <t>source_storage_duration_unit</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000032</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000035</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000036</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000033</t>
-  </si>
-  <si>
-    <t>minute</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000031</t>
-  </si>
-  <si>
-    <t>time_since_acquisition_instrument_calibration_value</t>
-  </si>
-  <si>
-    <t>time_since_acquisition_instrument_calibration_unit</t>
-  </si>
-  <si>
-    <t>contributors_path</t>
-  </si>
-  <si>
-    <t>data_path</t>
-  </si>
-  <si>
-    <t>ms_ionization_technique</t>
-  </si>
-  <si>
-    <t>LDI</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000393</t>
-  </si>
-  <si>
-    <t>SIMS-H20</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000281</t>
-  </si>
-  <si>
-    <t>HESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000289</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C111241</t>
-  </si>
-  <si>
-    <t>nanoDESI</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0003101</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000075</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1002011</t>
-  </si>
-  <si>
-    <t>SIMS-C60</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000280</t>
-  </si>
-  <si>
-    <t>ESI</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C19363</t>
-  </si>
-  <si>
-    <t>MALDI-2</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000279</t>
-  </si>
-  <si>
-    <t>ms_scan_mode</t>
-  </si>
-  <si>
-    <t>MS3</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000230</t>
-  </si>
-  <si>
-    <t>MS2</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000229</t>
-  </si>
-  <si>
-    <t>MS1</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000228</t>
-  </si>
-  <si>
-    <t>mass_analysis_polarity</t>
-  </si>
-  <si>
-    <t>Negative ion mode</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000276</t>
-  </si>
-  <si>
-    <t>Negative and positive ion mode</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000278</t>
-  </si>
-  <si>
-    <t>Positive ion mode</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000277</t>
-  </si>
-  <si>
-    <t>mass_to_charge_range_low_value</t>
-  </si>
-  <si>
-    <t>mass_to_charge_range_high_value</t>
-  </si>
-  <si>
-    <t>mass_resolving_power</t>
-  </si>
-  <si>
-    <t>mass_to_charge_resolving_power</t>
-  </si>
-  <si>
-    <t>ion_mobility</t>
-  </si>
-  <si>
-    <t>cIMS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000227</t>
-  </si>
-  <si>
-    <t>DTIMS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000225</t>
-  </si>
-  <si>
-    <t>SLIM</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000226</t>
-  </si>
-  <si>
-    <t>TWIMS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000223</t>
-  </si>
-  <si>
-    <t>TIMS</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C158244</t>
-  </si>
-  <si>
-    <t>FAIMS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000224</t>
-  </si>
-  <si>
-    <t>data_collection_mode</t>
-  </si>
-  <si>
-    <t>DDA</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C161785</t>
-  </si>
-  <si>
-    <t>PRM</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C161788</t>
-  </si>
-  <si>
-    <t>DIA</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C161786</t>
-  </si>
-  <si>
-    <t>SRM</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C161787</t>
-  </si>
-  <si>
-    <t>label_name</t>
-  </si>
-  <si>
-    <t>lc_instrument_vendor</t>
-  </si>
-  <si>
-    <t>In-House</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
-  </si>
-  <si>
-    <t>Evosep</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024590</t>
-  </si>
-  <si>
-    <t>Agilent Technologies</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_013575</t>
-  </si>
-  <si>
-    <t>Waters</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024589</t>
-  </si>
-  <si>
-    <t>lc_instrument_model</t>
-  </si>
-  <si>
-    <t>lc_column_vendor</t>
-  </si>
-  <si>
-    <t>IonOpticks</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024593</t>
-  </si>
-  <si>
-    <t>lc_column_model</t>
-  </si>
-  <si>
-    <t>lc_resin</t>
-  </si>
-  <si>
-    <t>lc_column_length_value</t>
-  </si>
-  <si>
-    <t>lc_column_length_unit</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000016</t>
-  </si>
-  <si>
-    <t>um</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000017</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000015</t>
-  </si>
-  <si>
-    <t>lc_temperature_value</t>
-  </si>
-  <si>
-    <t>lc_temperature_unit</t>
-  </si>
-  <si>
-    <t>celsius</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000027</t>
-  </si>
-  <si>
-    <t>lc_inner_diameter_value</t>
-  </si>
-  <si>
-    <t>lc_inner_diameter_unit</t>
-  </si>
-  <si>
-    <t>lc_flow_rate_value</t>
-  </si>
-  <si>
-    <t>lc_flow_rate_unit</t>
-  </si>
-  <si>
-    <t>mL/min</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000290</t>
-  </si>
-  <si>
-    <t>nL/min</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000275</t>
-  </si>
-  <si>
-    <t>lc_gradient_value</t>
-  </si>
-  <si>
-    <t>lc_gradient_unit</t>
-  </si>
-  <si>
-    <t>lc_mobile_phase_a</t>
-  </si>
-  <si>
-    <t>lc_mobile_phase_b</t>
-  </si>
-  <si>
-    <t>spatial_sampling_technique</t>
-  </si>
-  <si>
-    <t>microPOTS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000293</t>
-  </si>
-  <si>
-    <t>LESA</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000291</t>
-  </si>
-  <si>
-    <t>microLESA</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000292</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0003102</t>
   </si>
   <si>
@@ -1363,7 +1378,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-27T18:10:56-07:00</t>
+    <t>2023-11-02T15:47:27-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1551,141 +1566,141 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2">
       <c r="AT2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="32">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1697,7 +1712,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1786,7 +1801,7 @@
       <formula1>'lc_gradient_unit'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AP2:AP1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'spatial_sampling_technique'!$A$1:$A$5</formula1>
+      <formula1>'spatial_sampling_technique'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AR2:AR1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'spatial_sampling_type'!$A$1:$A$2</formula1>
@@ -1808,26 +1823,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1845,26 +1860,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1882,50 +1897,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1943,34 +1958,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -1988,58 +2003,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2057,50 +2072,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2118,26 +2133,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2155,10 +2170,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2176,26 +2191,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2213,18 +2228,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +2249,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2518,14 +2533,6 @@
       </c>
       <c r="B35" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2543,10 +2550,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2556,7 +2563,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2564,42 +2571,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
-        <v>328</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2617,18 +2632,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2652,30 +2667,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -2693,90 +2708,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2794,12 +2809,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2817,114 +2832,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2934,7 +2949,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2942,290 +2957,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>202</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3243,42 +3274,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3296,26 +3327,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3333,82 +3364,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/lcms/v4.0.0/lcms-v4.0.0.xlsx
+++ b/lcms/v4.0.0/lcms-v4.0.0.xlsx
@@ -1378,7 +1378,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-02T15:47:27-07:00</t>
+    <t>2023-11-07T20:07:53-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/lcms/v4.0.0/lcms-v4.0.0.xlsx
+++ b/lcms/v4.0.0/lcms-v4.0.0.xlsx
@@ -335,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="345">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -367,18 +367,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
   </si>
   <si>
-    <t>scATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
@@ -391,22 +391,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
-    <t>scRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
-  </si>
-  <si>
     <t>Xenium</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>snATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
   </si>
   <si>
     <t>Molecular Cartography</t>
@@ -433,12 +427,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
   </si>
   <si>
-    <t>RNAseq (Visium)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000188</t>
-  </si>
-  <si>
     <t>Cell DIVE</t>
   </si>
   <si>
@@ -451,6 +439,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
+    <t>GeoMx (NGS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -463,18 +457,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
-    <t>RNAseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
-  </si>
-  <si>
     <t>MALDI</t>
   </si>
   <si>
@@ -487,10 +469,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
     <t>Histology</t>
@@ -505,10 +487,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
-    <t>ATACseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
+    <t>RNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
     <t>MERFISH</t>
@@ -523,12 +505,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
   </si>
   <si>
+    <t>nanoSPLITS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
+  </si>
+  <si>
     <t>10X Multiome</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
   </si>
   <si>
+    <t>GeoMx (nCounter)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
+  </si>
+  <si>
+    <t>RNAseq (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
+  </si>
+  <si>
     <t>PhenoCycler</t>
   </si>
   <si>
@@ -547,18 +547,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
-    <t>snRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
-  </si>
-  <si>
-    <t>Visium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000187</t>
-  </si>
-  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -1309,9 +1297,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000293</t>
   </si>
   <si>
-    <t>nanoSPLITS</t>
-  </si>
-  <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000297</t>
   </si>
   <si>
@@ -1378,7 +1363,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-07T20:07:53-08:00</t>
+    <t>2023-11-15T17:14:54-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1566,141 +1551,144 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K1" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s" s="1">
         <v>218</v>
       </c>
-      <c r="L1" t="s" s="1">
-        <v>219</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>220</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>221</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>222</v>
-      </c>
       <c r="P1" t="s" s="1">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R1" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>253</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>254</v>
+      </c>
+      <c r="V1" t="s" s="1">
         <v>255</v>
       </c>
-      <c r="S1" t="s" s="1">
-        <v>256</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>257</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>258</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>259</v>
-      </c>
       <c r="W1" t="s" s="1">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Z1" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>288</v>
+      </c>
+      <c r="AB1" t="s" s="1">
         <v>291</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>292</v>
       </c>
-      <c r="AB1" t="s" s="1">
-        <v>295</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>296</v>
-      </c>
       <c r="AD1" t="s" s="1">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AF1" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>302</v>
+      </c>
+      <c r="AH1" t="s" s="1">
         <v>305</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>306</v>
       </c>
-      <c r="AH1" t="s" s="1">
-        <v>309</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>310</v>
-      </c>
       <c r="AJ1" t="s" s="1">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AL1" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>314</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>315</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>316</v>
+      </c>
+      <c r="AP1" t="s" s="1">
         <v>317</v>
       </c>
-      <c r="AM1" t="s" s="1">
-        <v>318</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>319</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>320</v>
-      </c>
-      <c r="AP1" t="s" s="1">
-        <v>321</v>
-      </c>
       <c r="AQ1" t="s" s="1">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AR1" t="s" s="1">
+        <v>330</v>
+      </c>
+      <c r="AS1" t="s" s="1">
         <v>335</v>
       </c>
-      <c r="AS1" t="s" s="1">
-        <v>340</v>
-      </c>
       <c r="AT1" t="s" s="1">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
       <c r="AT2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="32">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$35</formula1>
+      <formula1>'dataset_type'!$A$1:$A$33</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1823,26 +1811,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1860,26 +1848,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1897,50 +1885,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -1958,34 +1946,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2003,58 +1991,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2072,50 +2060,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2133,26 +2121,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2170,10 +2158,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2191,26 +2179,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2228,18 +2216,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2249,7 +2237,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2517,22 +2505,6 @@
       </c>
       <c r="B33" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2550,10 +2522,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2571,50 +2543,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2632,18 +2604,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2667,30 +2639,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" t="s">
         <v>343</v>
-      </c>
-      <c r="B1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -2708,90 +2680,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2809,12 +2781,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2832,114 +2804,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2957,306 +2929,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3274,42 +3246,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3327,26 +3299,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3364,82 +3336,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/lcms/v4.0.0/lcms-v4.0.0.xlsx
+++ b/lcms/v4.0.0/lcms-v4.0.0.xlsx
@@ -1363,7 +1363,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-15T17:14:54-08:00</t>
+    <t>2023-11-24T09:47:36-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/lcms/v4.0.0/lcms-v4.0.0.xlsx
+++ b/lcms/v4.0.0/lcms-v4.0.0.xlsx
@@ -335,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="367">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -628,6 +628,18 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
@@ -670,6 +682,18 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>Evident Scientific (Olympus)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024782</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -706,6 +730,12 @@
     <t>https://identifiers.org/RRID:SCR_010233</t>
   </si>
   <si>
+    <t>Motic</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024856</t>
+  </si>
+  <si>
     <t>Ionpath</t>
   </si>
   <si>
@@ -739,6 +769,12 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
     <t>Axio Observer 7</t>
   </si>
   <si>
@@ -757,18 +793,42 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>DM6 B</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024857</t>
+  </si>
+  <si>
     <t>NanoZoomer 2.0-HT</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 2.0</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023773</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -793,6 +853,12 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>VS200 Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024783</t>
+  </si>
+  <si>
     <t>Axio Observer 5</t>
   </si>
   <si>
@@ -853,6 +919,12 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
@@ -1174,12 +1246,6 @@
     <t>lc_instrument_vendor</t>
   </si>
   <si>
-    <t>In-House</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
-  </si>
-  <si>
     <t>Evosep</t>
   </si>
   <si>
@@ -1363,7 +1429,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-24T09:47:36-08:00</t>
+    <t>2024-01-29T14:16:22-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1489,52 +1555,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="12.28515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="12.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="10.8984375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="28.46484375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="27.87109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="47.64453125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="23.15625" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="14.55859375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="21.265625" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="30.8203125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="31.69921875" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="21.0546875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="30.70703125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="11.98046875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" style="24" width="20.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" style="25" width="11.08984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" style="26" width="20.21875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" style="27" width="19.62109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" style="28" width="17.06640625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" style="29" width="16.47265625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" style="30" width="7.8046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" style="31" width="22.15234375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" style="32" width="20.9921875" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" style="33" width="19.94921875" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" style="34" width="18.7890625" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" style="35" width="22.375" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" style="36" width="21.21875" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" style="37" width="17.125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" style="38" width="15.96484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" style="39" width="16.4296875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" style="40" width="15.2734375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" style="41" width="17.609375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" style="42" width="17.75" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" style="43" width="25.65234375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" style="44" width="22.1875" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" style="45" width="20.70703125" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" style="46" width="20.17578125" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" style="47" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="9.40234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="24.5546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="24.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="24.63671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="23.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="41.1015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="40.1015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="8.46484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="19.97265625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="12.55859375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="18.34375" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="26.5859375" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="27.34375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="18.1640625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="26.48828125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="10.33203125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" style="24" width="17.52734375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" style="25" width="9.56640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" style="26" width="17.4375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" style="27" width="16.92578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" style="28" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" style="29" width="14.20703125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" style="30" width="6.73046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" style="31" width="19.109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" style="32" width="18.109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" style="33" width="17.20703125" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" style="34" width="16.20703125" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" style="35" width="19.30078125" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" style="36" width="18.30078125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" style="37" width="14.7734375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" style="38" width="13.7734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" style="39" width="14.171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" style="40" width="13.171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" style="41" width="15.1875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" style="42" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" style="43" width="22.12890625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" style="44" width="19.140625" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" style="45" width="17.86328125" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" style="46" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" style="47" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1560,129 +1626,129 @@
         <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>336</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="5">
         <v>54</v>
       </c>
-      <c r="AT2" t="s">
-        <v>337</v>
+      <c r="AT2" t="s" s="47">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -1697,10 +1763,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1714,7 +1780,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
+      <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'ms_ionization_technique'!$A$1:$A$10</formula1>
@@ -1810,27 +1876,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" t="s">
-        <v>239</v>
+      <c r="A1" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>263</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" t="s">
-        <v>241</v>
+      <c r="A2" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>265</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" t="s">
-        <v>243</v>
+      <c r="A3" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -1847,27 +1913,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" t="s">
-        <v>246</v>
+      <c r="A1" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>270</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" t="s">
-        <v>248</v>
+      <c r="A2" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>272</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B3" t="s">
-        <v>250</v>
+      <c r="A3" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -1884,51 +1950,51 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" t="s">
-        <v>257</v>
+      <c r="A1" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>281</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" t="s">
-        <v>259</v>
+      <c r="A2" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>283</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3" t="s">
-        <v>261</v>
+      <c r="A3" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>285</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" t="s">
-        <v>263</v>
+      <c r="A4" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>287</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B5" t="s">
-        <v>265</v>
+      <c r="A5" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>289</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B6" t="s">
-        <v>267</v>
+      <c r="A6" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -1945,35 +2011,35 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" t="s">
-        <v>270</v>
+      <c r="A1" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>294</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" t="s">
-        <v>272</v>
+      <c r="A2" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>296</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3" t="s">
-        <v>274</v>
+      <c r="A3" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>298</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" t="s">
-        <v>276</v>
+      <c r="A4" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -1990,59 +2056,59 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" t="s">
-        <v>280</v>
+      <c r="A1" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B2" t="s">
-        <v>282</v>
+      <c r="A2" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>304</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
+      <c r="A3" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" t="s">
-        <v>284</v>
+      <c r="A4" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>306</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" t="s">
-        <v>108</v>
+      <c r="A5" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" t="s">
-        <v>110</v>
+      <c r="A6" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>114</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B7" t="s">
-        <v>286</v>
+      <c r="A7" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2059,51 +2125,51 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" t="s">
-        <v>280</v>
+      <c r="A1" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B2" t="s">
-        <v>290</v>
+      <c r="A2" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>312</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" t="s">
-        <v>282</v>
+      <c r="A3" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>304</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
+      <c r="A4" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" t="s">
-        <v>110</v>
+      <c r="A5" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>114</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" t="s">
-        <v>286</v>
+      <c r="A6" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2120,27 +2186,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" t="s">
-        <v>296</v>
+      <c r="A1" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>318</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" t="s">
-        <v>298</v>
+      <c r="A2" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>320</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B3" t="s">
-        <v>300</v>
+      <c r="A3" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2157,11 +2223,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1" t="s">
-        <v>304</v>
+      <c r="A1" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2178,27 +2244,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" t="s">
-        <v>296</v>
+      <c r="A1" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>318</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" t="s">
-        <v>298</v>
+      <c r="A2" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>320</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B3" t="s">
-        <v>300</v>
+      <c r="A3" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2215,19 +2281,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B1" t="s">
-        <v>310</v>
+      <c r="A1" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>332</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B2" t="s">
-        <v>312</v>
+      <c r="A2" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2244,266 +2310,266 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>69</v>
       </c>
     </row>
@@ -2521,11 +2587,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" t="s">
-        <v>213</v>
+      <c r="A1" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2542,51 +2608,51 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B1" t="s">
-        <v>319</v>
+      <c r="A1" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>341</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
-        <v>320</v>
+      <c r="B2" t="s" s="0">
+        <v>342</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B3" t="s">
-        <v>322</v>
+      <c r="A3" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>344</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B4" t="s">
-        <v>324</v>
+      <c r="A4" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>346</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B5" t="s">
-        <v>326</v>
+      <c r="A5" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>348</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>327</v>
-      </c>
-      <c r="B6" t="s">
-        <v>328</v>
+      <c r="A6" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -2603,19 +2669,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1" t="s">
-        <v>332</v>
+      <c r="A1" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>354</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B2" t="s">
-        <v>334</v>
+      <c r="A2" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -2631,38 +2697,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="80.47265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.20703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="69.41796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D1" t="s">
-        <v>343</v>
+      <c r="A1" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>365</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D2" t="s">
-        <v>344</v>
+      <c r="B2" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -2679,90 +2745,90 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>74</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>92</v>
       </c>
     </row>
@@ -2780,12 +2846,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>95</v>
       </c>
     </row>
@@ -2796,122 +2862,162 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>106</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2921,314 +3027,370 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" t="s">
-        <v>127</v>
+      <c r="A1" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
+      <c r="A2" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>139</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
+      <c r="A3" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>141</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" t="s">
-        <v>133</v>
+      <c r="A4" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>135</v>
+      <c r="A5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" t="s">
-        <v>137</v>
+      <c r="A6" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>147</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" t="s">
-        <v>139</v>
+      <c r="A7" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>149</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" t="s">
-        <v>141</v>
+      <c r="A8" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>151</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
+      <c r="A9" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>153</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" t="s">
-        <v>145</v>
+      <c r="A10" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" t="s">
-        <v>147</v>
+      <c r="A11" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>157</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" t="s">
-        <v>149</v>
+      <c r="A12" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" t="s">
-        <v>151</v>
+      <c r="A13" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>161</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" t="s">
-        <v>153</v>
+      <c r="A14" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>163</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" t="s">
-        <v>155</v>
+      <c r="A15" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>165</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" t="s">
-        <v>157</v>
+      <c r="A16" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>167</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" t="s">
-        <v>159</v>
+      <c r="A17" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>169</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" t="s">
-        <v>161</v>
+      <c r="A18" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>171</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" t="s">
-        <v>163</v>
+      <c r="A19" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>173</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" t="s">
-        <v>165</v>
+      <c r="A20" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>175</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" t="s">
-        <v>167</v>
+      <c r="A21" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>177</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" t="s">
-        <v>169</v>
+      <c r="A22" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>179</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" t="s">
-        <v>171</v>
+      <c r="A23" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>181</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" t="s">
-        <v>173</v>
+      <c r="A24" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>183</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" t="s">
-        <v>175</v>
+      <c r="A25" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>185</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" t="s">
-        <v>177</v>
+      <c r="A26" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>187</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" t="s">
-        <v>179</v>
+      <c r="A27" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>189</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" t="s">
-        <v>181</v>
+      <c r="A28" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>191</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" t="s">
-        <v>183</v>
+      <c r="A29" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>193</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" t="s">
-        <v>185</v>
+      <c r="A30" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>195</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" t="s">
-        <v>187</v>
+      <c r="A31" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>197</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" t="s">
-        <v>189</v>
+      <c r="A32" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>199</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B33" t="s">
-        <v>191</v>
+      <c r="A33" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>201</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" t="s">
-        <v>193</v>
+      <c r="A34" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35" t="s">
-        <v>195</v>
+      <c r="A35" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" t="s">
-        <v>197</v>
+      <c r="A36" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" t="s">
-        <v>199</v>
+      <c r="A37" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>209</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>200</v>
-      </c>
-      <c r="B38" t="s">
-        <v>201</v>
+      <c r="A38" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3245,43 +3407,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" t="s">
-        <v>205</v>
+      <c r="A1" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" t="s">
-        <v>207</v>
+      <c r="A2" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>209</v>
+      <c r="A3" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" t="s">
-        <v>211</v>
+      <c r="A4" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" t="s">
-        <v>213</v>
+      <c r="A5" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3298,27 +3460,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" t="s">
-        <v>207</v>
+      <c r="A1" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
+      <c r="A2" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
+      <c r="A3" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3335,83 +3497,83 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" t="s">
-        <v>220</v>
+      <c r="A1" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>244</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" t="s">
-        <v>222</v>
+      <c r="A2" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>246</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" t="s">
-        <v>224</v>
+      <c r="A3" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>248</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" t="s">
-        <v>226</v>
+      <c r="A4" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>250</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" t="s">
-        <v>228</v>
+      <c r="A5" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>252</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
-        <v>229</v>
+      <c r="B6" t="s" s="0">
+        <v>253</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>230</v>
+      <c r="B7" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" t="s">
-        <v>232</v>
+      <c r="A8" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>256</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" t="s">
-        <v>234</v>
+      <c r="A9" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>258</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" t="s">
-        <v>236</v>
+      <c r="A10" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/lcms/v4.0.0/lcms-v4.0.0.xlsx
+++ b/lcms/v4.0.0/lcms-v4.0.0.xlsx
@@ -335,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="389">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -445,6 +445,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
   </si>
   <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -550,6 +556,12 @@
     <t>analyte_class</t>
   </si>
   <si>
+    <t>DNA + RNA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -670,6 +682,12 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_000004</t>
+  </si>
+  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -682,6 +700,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
     <t>Akoya Biosciences</t>
   </si>
   <si>
@@ -724,6 +748,12 @@
     <t>https://identifiers.org/RRID:SCR_023609</t>
   </si>
   <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
     <t>Illumina</t>
   </si>
   <si>
@@ -763,16 +793,142 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
+    <t>EVOS M7000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025070</t>
+  </si>
+  <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024448</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
+    <t>Q Exactive UHMR</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020571</t>
+  </si>
+  <si>
+    <t>Q Exactive</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020565</t>
+  </si>
+  <si>
+    <t>Zyla 4.2 sCMOS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023610</t>
+  </si>
+  <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
+    <t>QTRAP 5500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020517</t>
+  </si>
+  <si>
+    <t>BZ-X800</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023617</t>
+  </si>
+  <si>
+    <t>NextSeq 500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_014983</t>
+  </si>
+  <si>
+    <t>NanoZoomer S360</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023761</t>
+  </si>
+  <si>
+    <t>Hyperion Imaging System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023195</t>
+  </si>
+  <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
+    <t>NextSeq 550</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016381</t>
+  </si>
+  <si>
+    <t>Digital Spatial Profiler</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021660</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>MoticEasyScan One</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024855</t>
+    <t>BZ-X810</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025160</t>
   </si>
   <si>
     <t>Axio Observer 7</t>
@@ -781,52 +937,34 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
-    <t>NovaSeq X</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024569</t>
-  </si>
-  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>PhenoImager Fusion</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023274</t>
+  </si>
+  <si>
     <t>DM6 B</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024857</t>
   </si>
   <si>
-    <t>NanoZoomer 2.0-HT</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021658</t>
-  </si>
-  <si>
     <t>Phenocycler-Fusion 2.0</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023773</t>
   </si>
   <si>
-    <t>Lightsheet 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024448</t>
-  </si>
-  <si>
-    <t>Phenocycler-Fusion 1.0</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
-  </si>
-  <si>
-    <t>DNBSEQ-T7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024847</t>
+    <t>Aperio CS2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025111</t>
   </si>
   <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
@@ -841,18 +979,18 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
-  </si>
-  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>TissueScope LE Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024995</t>
+  </si>
+  <si>
     <t>VS200 Slide Scanner</t>
   </si>
   <si>
@@ -883,12 +1021,6 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
-    <t>Q Exactive UHMR</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020571</t>
-  </si>
-  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -901,40 +1033,16 @@
     <t>https://identifiers.org/RRID:SCR_016387</t>
   </si>
   <si>
-    <t>Q Exactive</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020565</t>
-  </si>
-  <si>
-    <t>Zyla 4.2 sCMOS</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023610</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Custom: Multiphoton</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
-  </si>
-  <si>
-    <t>QTRAP 5500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020517</t>
-  </si>
-  <si>
-    <t>BZ-X800</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023617</t>
+    <t>Aperio AT2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021256</t>
   </si>
   <si>
     <t>MIBIscope</t>
@@ -943,18 +1051,6 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
-    <t>NextSeq 500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_014983</t>
-  </si>
-  <si>
-    <t>NanoZoomer S360</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023761</t>
-  </si>
-  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -967,36 +1063,6 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
-    <t>Hyperion Imaging System</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023195</t>
-  </si>
-  <si>
-    <t>NovaSeq X Plus</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024568</t>
-  </si>
-  <si>
-    <t>NanoZoomer-SQ</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023763</t>
-  </si>
-  <si>
-    <t>NextSeq 550</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016381</t>
-  </si>
-  <si>
-    <t>Digital Spatial Profiler</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021660</t>
-  </si>
-  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1429,7 +1495,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-01-29T14:16:22-08:00</t>
+    <t>2024-04-01T14:51:33-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1617,156 +1683,156 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>358</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>359</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="32">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$33</formula1>
+      <formula1>'dataset_type'!$A$1:$A$34</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$11</formula1>
+      <formula1>'analyte_class'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1877,26 +1943,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>265</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -1914,26 +1980,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>270</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>272</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>274</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -1951,50 +2017,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>281</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>283</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>285</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>287</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>289</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2012,34 +2078,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>294</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>296</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>298</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>300</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2057,58 +2123,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>304</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>306</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -2126,50 +2192,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>312</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>304</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -2187,26 +2253,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>318</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>320</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>322</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -2224,10 +2290,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>326</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -2245,26 +2311,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>318</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>320</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>322</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -2282,18 +2348,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>332</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>334</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -2303,7 +2369,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2571,6 +2637,14 @@
       </c>
       <c r="B33" t="s" s="0">
         <v>69</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2588,10 +2662,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2609,50 +2683,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>341</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>342</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>344</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>346</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>348</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>350</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2670,18 +2744,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>354</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>356</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -2705,30 +2779,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>365</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>366</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -2738,7 +2812,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2746,90 +2820,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2847,12 +2929,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2862,7 +2944,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2870,154 +2952,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3027,7 +3133,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3035,362 +3141,410 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3408,42 +3562,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3461,26 +3615,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3498,50 +3652,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>244</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>246</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>248</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>250</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>252</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>253</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7">
@@ -3549,31 +3703,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>254</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/lcms/v4.0.0/lcms-v4.0.0.xlsx
+++ b/lcms/v4.0.0/lcms-v4.0.0.xlsx
@@ -335,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="401">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -397,6 +397,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
     <t>Visium (with probes)</t>
   </si>
   <si>
@@ -493,6 +499,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000384</t>
+  </si>
+  <si>
     <t>RNAseq</t>
   </si>
   <si>
@@ -574,22 +586,52 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
   </si>
   <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
+  </si>
+  <si>
+    <t>Metabolite</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+  </si>
+  <si>
+    <t>Unsaturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
+  </si>
+  <si>
+    <t>Saturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
+  </si>
+  <si>
+    <t>Lipid</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_51217</t>
   </si>
   <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
-  </si>
-  <si>
-    <t>Metabolite</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+    <t>Collagen</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16447</t>
   </si>
   <si>
     <t>DNA</t>
@@ -616,27 +658,15 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
   </si>
   <si>
-    <t>Lipid</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
@@ -685,7 +715,7 @@
     <t>GE Healthcare</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_000004</t>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
   </si>
   <si>
     <t>Sciex</t>
@@ -793,6 +823,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+  </si>
+  <si>
     <t>MoticEasyScan One</t>
   </si>
   <si>
@@ -1189,6 +1225,12 @@
     <t>ms_scan_mode</t>
   </si>
   <si>
+    <t>MS1</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000228</t>
+  </si>
+  <si>
     <t>MS3</t>
   </si>
   <si>
@@ -1201,12 +1243,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000229</t>
   </si>
   <si>
-    <t>MS1</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000228</t>
-  </si>
-  <si>
     <t>mass_analysis_polarity</t>
   </si>
   <si>
@@ -1216,18 +1252,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000276</t>
   </si>
   <si>
+    <t>Positive ion mode</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000277</t>
+  </si>
+  <si>
     <t>Negative and positive ion mode</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000278</t>
   </si>
   <si>
-    <t>Positive ion mode</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000277</t>
-  </si>
-  <si>
     <t>mass_to_charge_range_low_value</t>
   </si>
   <si>
@@ -1249,6 +1285,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000227</t>
   </si>
   <si>
+    <t>TWIMS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000223</t>
+  </si>
+  <si>
     <t>DTIMS</t>
   </si>
   <si>
@@ -1261,12 +1303,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000226</t>
   </si>
   <si>
-    <t>TWIMS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000223</t>
-  </si>
-  <si>
     <t>TIMS</t>
   </si>
   <si>
@@ -1462,18 +1498,18 @@
     <t>spatial_sampling_type</t>
   </si>
   <si>
+    <t>Profiling</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000294</t>
+  </si>
+  <si>
     <t>Imaging</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000295</t>
   </si>
   <si>
-    <t>Profiling</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000294</t>
-  </si>
-  <si>
     <t>analysis_protocol_doi</t>
   </si>
   <si>
@@ -1495,7 +1531,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-01T14:51:33-07:00</t>
+    <t>2024-08-03T11:45:22-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1683,147 +1719,147 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="32">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$34</formula1>
+      <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$12</formula1>
+      <formula1>'analyte_class'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1832,7 +1868,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1943,26 +1979,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -1980,26 +2016,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2017,50 +2053,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2078,34 +2114,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2123,58 +2159,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2192,50 +2228,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2253,26 +2289,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -2290,10 +2326,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2311,26 +2347,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -2348,18 +2384,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -2369,7 +2405,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2645,6 +2681,22 @@
       </c>
       <c r="B34" t="s" s="0">
         <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2662,10 +2714,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2683,50 +2735,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2744,18 +2796,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -2779,30 +2831,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -2812,7 +2864,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2820,98 +2872,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2929,12 +3005,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2952,178 +3028,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3133,7 +3209,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3141,410 +3217,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>247</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3562,42 +3646,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3615,26 +3699,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3652,50 +3736,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7">
@@ -3703,31 +3787,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/lcms/v4.0.0/lcms-v4.0.0.xlsx
+++ b/lcms/v4.0.0/lcms-v4.0.0.xlsx
@@ -335,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="409">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -475,6 +475,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
@@ -499,6 +505,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>DART-FISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000396</t>
+  </si>
+  <si>
     <t>Resolve</t>
   </si>
   <si>
@@ -574,18 +586,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
-    <t>Nucleic acid and protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -598,13 +610,19 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
   </si>
   <si>
-    <t>Unsaturated Lipid</t>
+    <t>Unsaturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
   </si>
   <si>
-    <t>Saturated Lipid</t>
+    <t>Lipid + metabolite</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000401</t>
+  </si>
+  <si>
+    <t>Saturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
@@ -640,24 +658,24 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
   </si>
   <si>
-    <t>Endogenous fluorophores</t>
+    <t>Peptide</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
+  </si>
+  <si>
+    <t>Polysaccharide</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
+  </si>
+  <si>
+    <t>Endogenous fluorophore</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000131</t>
   </si>
   <si>
-    <t>Peptide</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
-  </si>
-  <si>
-    <t>Polysaccharide</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
@@ -760,6 +778,12 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>10x Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023672</t>
+  </si>
+  <si>
     <t>NanoString</t>
   </si>
   <si>
@@ -1531,7 +1555,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-08-03T11:45:22-07:00</t>
+    <t>2025-01-08T12:46:05-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1719,153 +1743,153 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="32">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$15</formula1>
+      <formula1>'analyte_class'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
@@ -1979,26 +2003,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2016,26 +2040,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -2053,50 +2077,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2114,34 +2138,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2159,58 +2183,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -2228,50 +2252,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -2289,26 +2313,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -2326,10 +2350,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -2347,26 +2371,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -2384,18 +2408,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -2405,7 +2429,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2697,6 +2721,22 @@
       </c>
       <c r="B36" t="s" s="0">
         <v>75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2714,10 +2754,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2735,50 +2775,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -2796,18 +2836,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -2831,30 +2871,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -2864,7 +2904,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2872,122 +2912,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3005,12 +3053,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3020,7 +3068,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3028,178 +3076,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3217,418 +3273,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3646,42 +3702,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3699,26 +3755,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3736,42 +3792,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6">
@@ -3779,7 +3835,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7">
@@ -3787,31 +3843,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/lcms/v4.0.0/lcms-v4.0.0.xlsx
+++ b/lcms/v4.0.0/lcms-v4.0.0.xlsx
@@ -335,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="429">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -577,6 +577,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
+    <t>MS Lipidomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -724,6 +730,12 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
+    <t>Vizgen</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026274</t>
+  </si>
+  <si>
     <t>Standard BioTools (Fluidigm)</t>
   </si>
   <si>
@@ -877,6 +889,12 @@
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>timsTOF Ultra 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026541</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -895,12 +913,24 @@
     <t>https://identifiers.org/RRID:SCR_024847</t>
   </si>
   <si>
+    <t>timsTOF Pro</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026544</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
   </si>
   <si>
+    <t>timsTOF Pro 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026545</t>
+  </si>
+  <si>
     <t>Q Exactive UHMR</t>
   </si>
   <si>
@@ -913,6 +943,12 @@
     <t>https://identifiers.org/RRID:SCR_020565</t>
   </si>
   <si>
+    <t>timsTOF SCP</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026542</t>
+  </si>
+  <si>
     <t>Zyla 4.2 sCMOS</t>
   </si>
   <si>
@@ -931,6 +967,12 @@
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
+    <t>timsTOF Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026540</t>
+  </si>
+  <si>
     <t>BZ-X800</t>
   </si>
   <si>
@@ -1003,6 +1045,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>timsTOF HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026543</t>
+  </si>
+  <si>
     <t>PhenoImager Fusion</t>
   </si>
   <si>
@@ -1081,6 +1129,12 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>MERSCOPE</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000404</t>
+  </si>
+  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -1123,6 +1177,12 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
+    <t>MERSCOPE Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026273</t>
+  </si>
+  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1555,7 +1615,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-08T12:46:05-08:00</t>
+    <t>2025-03-08T07:35:05-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1743,130 +1803,130 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>400</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2">
@@ -1874,13 +1934,13 @@
         <v>64</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>401</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="32">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$38</formula1>
+      <formula1>'dataset_type'!$A$1:$A$39</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1889,10 +1949,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$24</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$60</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2003,26 +2063,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>307</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>309</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -2040,26 +2100,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>312</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>314</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>316</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -2077,50 +2137,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>323</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>325</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>327</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>329</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>331</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>333</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -2138,34 +2198,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>336</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>338</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>340</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>342</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -2183,58 +2243,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>348</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>350</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2252,50 +2312,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>354</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>350</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2313,26 +2373,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2350,10 +2410,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>368</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -2371,26 +2431,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2408,18 +2468,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>374</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>376</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -2429,7 +2489,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2737,6 +2797,14 @@
       </c>
       <c r="B38" t="s" s="0">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2754,10 +2822,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2775,10 +2843,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>383</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2">
@@ -2786,39 +2854,39 @@
         <v>66</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>384</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>386</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>388</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>390</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>392</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -2836,18 +2904,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>396</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>398</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -2871,16 +2939,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>407</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2">
@@ -2888,13 +2956,13 @@
         <v>64</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>408</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -2912,130 +2980,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3053,12 +3121,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3068,7 +3136,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3076,186 +3144,194 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3265,7 +3341,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3273,418 +3349,482 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3702,42 +3842,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>277</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>279</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3755,26 +3895,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3792,42 +3932,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>286</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>292</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>294</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6">
@@ -3835,7 +3975,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>295</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7">
@@ -3843,31 +3983,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>298</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>302</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/lcms/v4.0.0/lcms-v4.0.0.xlsx
+++ b/lcms/v4.0.0/lcms-v4.0.0.xlsx
@@ -63,11 +63,11 @@
     <comment ref="C1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+procurement and preparation. For example for an imaging assay, the protocol
+might begin with staining of a section and finalize with the creation of an
+OME-TIFF file. In this case the protocol would include any image processing
+steps required to create the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -116,8 +116,8 @@
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acqusition instrument was last serviced by the
-vendor. This provides a metric for assessing drift in data capture.</t>
+        <t>The amount of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture.</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
@@ -335,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="447">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -421,10 +421,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
     <t>SIMS</t>
@@ -523,6 +523,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
     <t>MERFISH</t>
   </si>
   <si>
@@ -583,6 +589,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -694,40 +706,100 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
+    <t>Cytiva</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023581</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008452</t>
+  </si>
+  <si>
+    <t>Zeiss Microscopy</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023607</t>
+  </si>
+  <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
+  </si>
+  <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>NanoString</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023912</t>
+  </si>
+  <si>
+    <t>Element Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026453</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023609</t>
+  </si>
+  <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_010233</t>
+  </si>
+  <si>
+    <t>Ionpath</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023605</t>
+  </si>
+  <si>
     <t>In-House</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
   </si>
   <si>
-    <t>BGI Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024848</t>
-  </si>
-  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023911</t>
   </si>
   <si>
-    <t>Cytiva</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023581</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008452</t>
-  </si>
-  <si>
-    <t>Zeiss Microscopy</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023607</t>
+    <t>Singular Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026683</t>
   </si>
   <si>
     <t>Vizgen</t>
@@ -742,12 +814,6 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
-    <t>GE Healthcare</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_025461</t>
-  </si>
-  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -760,18 +826,6 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
-    <t>Leica Microsystems</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008960</t>
-  </si>
-  <si>
-    <t>Akoya Biosciences</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023774</t>
-  </si>
-  <si>
     <t>Evident Scientific (Olympus)</t>
   </si>
   <si>
@@ -796,48 +850,18 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>NanoString</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023912</t>
-  </si>
-  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_017105</t>
   </si>
   <si>
-    <t>Andor</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023609</t>
-  </si>
-  <si>
-    <t>Huron Digital Pathology</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024996</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_010233</t>
-  </si>
-  <si>
     <t>Motic</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024856</t>
   </si>
   <si>
-    <t>Ionpath</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023605</t>
-  </si>
-  <si>
     <t>acquisition_instrument_model</t>
   </si>
   <si>
@@ -925,6 +949,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
   </si>
   <si>
+    <t>AVITI</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026452</t>
+  </si>
+  <si>
     <t>timsTOF Pro 2</t>
   </si>
   <si>
@@ -955,6 +985,12 @@
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
+    <t>Helios</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019916</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -979,6 +1015,18 @@
     <t>https://identifiers.org/RRID:SCR_023617</t>
   </si>
   <si>
+    <t>CyTOF 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026551</t>
+  </si>
+  <si>
+    <t>G4X Spatial Sequencer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026684</t>
+  </si>
+  <si>
     <t>NextSeq 500</t>
   </si>
   <si>
@@ -1003,6 +1051,12 @@
     <t>https://identifiers.org/RRID:SCR_024568</t>
   </si>
   <si>
+    <t>CyTOF XT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026344</t>
+  </si>
+  <si>
     <t>NanoZoomer-SQ</t>
   </si>
   <si>
@@ -1615,7 +1669,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-03-08T07:35:05-08:00</t>
+    <t>2025-04-24T10:51:20-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1803,144 +1857,144 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>420</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>421</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="32">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$39</formula1>
+      <formula1>'dataset_type'!$A$1:$A$41</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1949,10 +2003,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$24</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$60</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2063,26 +2117,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>325</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>327</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>329</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -2100,26 +2154,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>332</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>334</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>336</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -2137,50 +2191,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>343</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>345</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>347</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>349</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>351</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>353</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -2198,34 +2252,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>356</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>358</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>360</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>362</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -2243,18 +2297,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>366</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3">
@@ -2267,34 +2321,34 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>368</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>140</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>370</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -2312,26 +2366,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>366</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4">
@@ -2344,18 +2398,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>140</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>370</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -2373,26 +2427,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>380</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>382</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>384</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -2410,10 +2464,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>388</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -2431,26 +2485,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>380</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>382</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>384</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -2468,18 +2522,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>394</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>396</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -2489,7 +2543,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2805,6 +2859,22 @@
       </c>
       <c r="B39" t="s" s="0">
         <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2822,10 +2892,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>299</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2843,50 +2913,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>403</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>404</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>406</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>408</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>410</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>412</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -2904,18 +2974,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>416</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>418</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -2939,30 +3009,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>427</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>428</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -2980,130 +3050,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3121,12 +3191,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3136,7 +3206,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3144,194 +3214,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>166</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3341,7 +3427,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3349,482 +3435,530 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>280</v>
+        <v>149</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>281</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>287</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3842,42 +3976,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>291</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>295</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>297</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>299</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3895,26 +4029,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>295</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>297</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3932,42 +4066,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>310</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>314</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6">
@@ -3975,7 +4109,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>315</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7">
@@ -3983,31 +4117,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>316</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>318</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>320</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>322</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/lcms/v4.0.0/lcms-v4.0.0.xlsx
+++ b/lcms/v4.0.0/lcms-v4.0.0.xlsx
@@ -335,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="451">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1075,6 +1075,18 @@
     <t>https://identifiers.org/RRID:SCR_021660</t>
   </si>
   <si>
+    <t>timsTOF FleX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026925</t>
+  </si>
+  <si>
+    <t>timsTOF FleX MALDI-2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023615</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
@@ -1144,7 +1156,7 @@
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_023615</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000433</t>
   </si>
   <si>
     <t>TissueScope LE Slide Scanner</t>
@@ -1669,7 +1681,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-24T10:51:20-07:00</t>
+    <t>2025-05-12T10:16:33-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1869,118 +1881,118 @@
         <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2">
@@ -1988,7 +2000,7 @@
         <v>66</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -2006,7 +2018,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2117,26 +2129,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2154,26 +2166,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -2191,50 +2203,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -2252,34 +2264,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2305,10 +2317,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3">
@@ -2321,10 +2333,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5">
@@ -2345,10 +2357,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -2374,18 +2386,18 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4">
@@ -2406,10 +2418,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -2427,26 +2439,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -2464,10 +2476,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -2485,26 +2497,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -2522,18 +2534,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -2892,10 +2904,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2913,10 +2925,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2">
@@ -2924,39 +2936,39 @@
         <v>68</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -2974,18 +2986,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -3009,16 +3021,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2">
@@ -3026,13 +3038,13 @@
         <v>66</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -3427,7 +3439,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3883,26 +3895,26 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>150</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>291</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
@@ -3959,6 +3971,22 @@
       </c>
       <c r="B66" t="s" s="0">
         <v>305</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3976,42 +4004,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4029,26 +4057,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4066,42 +4094,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6">
@@ -4109,7 +4137,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7">
@@ -4117,31 +4145,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/lcms/v4.0.0/lcms-v4.0.0.xlsx
+++ b/lcms/v4.0.0/lcms-v4.0.0.xlsx
@@ -335,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="494">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -361,34 +361,166 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+  </si>
+  <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
+  </si>
+  <si>
+    <t>Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
+  </si>
+  <si>
+    <t>CosMx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
+  </si>
+  <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
+    <t>Visium HD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000451</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
+  </si>
+  <si>
     <t>MIBI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
-    <t>Visium (no probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
   </si>
   <si>
-    <t>Confocal</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000440</t>
   </si>
   <si>
     <t>Xenium</t>
@@ -397,36 +529,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>Stereo-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
-  </si>
-  <si>
-    <t>Visium (with probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
-  </si>
-  <si>
-    <t>Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
-  </si>
-  <si>
-    <t>CosMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -457,16 +559,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+    <t>Pixel-seqV2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000450</t>
   </si>
   <si>
     <t>MALDI</t>
@@ -475,24 +571,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
-    <t>seqFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
-  </si>
-  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>ATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -523,18 +607,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
-    <t>Singular Genomics G4X</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -547,12 +619,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
     <t>GeoMx (nCounter)</t>
   </si>
   <si>
@@ -565,34 +631,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>MS Lipidomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
-    <t>CyTOF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+    <t>MPLEx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
   </si>
   <si>
     <t>analyte_class</t>
@@ -730,6 +778,18 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
+    <t>Complete Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027007</t>
+  </si>
+  <si>
+    <t>3DHISTECH</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027042</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -844,12 +904,24 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Cytek Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027071</t>
+  </si>
+  <si>
     <t>10x Genomics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
+    <t>Microscopes International</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027094</t>
+  </si>
+  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
@@ -883,6 +955,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Pannoramic MIDI II Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024834</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -991,6 +1069,12 @@
     <t>https://identifiers.org/RRID:SCR_019916</t>
   </si>
   <si>
+    <t>uScopeHXII-20</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027101</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -1069,6 +1153,12 @@
     <t>https://identifiers.org/RRID:SCR_016381</t>
   </si>
   <si>
+    <t>Axio Zoom.V16</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027090</t>
+  </si>
+  <si>
     <t>Digital Spatial Profiler</t>
   </si>
   <si>
@@ -1105,6 +1195,12 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>Cytek Northern Lights</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027072</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1195,6 +1291,9 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>https://identifiers.org/RRID:SCR_027323</t>
+  </si>
+  <si>
     <t>MERSCOPE</t>
   </si>
   <si>
@@ -1219,6 +1318,18 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>solariX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027095</t>
+  </si>
+  <si>
+    <t>Panoramic 150 Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027467</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1231,6 +1342,12 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>Biomark HD</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_022658</t>
+  </si>
+  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -1255,6 +1372,12 @@
     <t>https://identifiers.org/RRID:SCR_020927</t>
   </si>
   <si>
+    <t>Juno System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027198</t>
+  </si>
+  <si>
     <t>Q Exactive HF</t>
   </si>
   <si>
@@ -1372,6 +1495,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000279</t>
   </si>
   <si>
+    <t>nESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000456</t>
+  </si>
+  <si>
     <t>ms_scan_mode</t>
   </si>
   <si>
@@ -1681,7 +1810,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-05-12T10:16:33-07:00</t>
+    <t>2025-09-25T16:07:11-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1869,144 +1998,144 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>419</v>
+        <v>462</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>442</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>443</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="32">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$41</formula1>
+      <formula1>'dataset_type'!$A$1:$A$49</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -2015,10 +2144,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$77</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2035,7 +2164,7 @@
       <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'ms_ionization_technique'!$A$1:$A$10</formula1>
+      <formula1>'ms_ionization_technique'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'ms_scan_mode'!$A$1:$A$3</formula1>
@@ -2129,26 +2258,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>347</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>349</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>351</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -2166,26 +2295,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>354</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>356</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>358</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -2203,50 +2332,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>365</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>367</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>369</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>371</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>373</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>375</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -2264,34 +2393,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>378</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>380</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>382</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>384</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -2309,58 +2438,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>388</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>390</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>392</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -2378,50 +2507,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>396</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>388</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>392</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -2439,26 +2568,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>402</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>404</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>406</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -2476,10 +2605,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>410</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -2497,26 +2626,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>402</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>404</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>406</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -2534,18 +2663,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>416</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>418</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -2555,7 +2684,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2887,6 +3016,70 @@
       </c>
       <c r="B41" t="s" s="0">
         <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2904,10 +3097,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>321</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -2925,50 +3118,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>425</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>426</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>428</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>430</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>432</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>434</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -2986,18 +3179,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>438</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>440</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -3021,30 +3214,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>444</v>
+        <v>487</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>449</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>450</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -3062,130 +3255,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3203,12 +3396,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3218,7 +3411,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3226,210 +3419,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>174</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +3664,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3447,546 +3672,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>177</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>183</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>185</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>215</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>217</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>221</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>223</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>225</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>227</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>231</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>235</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>237</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>239</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>241</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>243</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>247</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>249</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>255</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>257</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>259</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>261</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>263</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>267</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>269</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>271</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>273</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>275</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>277</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>279</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>281</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>283</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>285</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>287</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>289</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>291</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>149</v>
+        <v>316</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>150</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>292</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>295</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>297</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>299</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>300</v>
+        <v>169</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>301</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>303</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>305</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>309</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4004,42 +4301,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>317</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>319</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>321</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -4057,26 +4354,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>319</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -4086,7 +4383,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4094,82 +4391,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>328</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>330</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>332</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>334</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>336</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>337</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>338</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>340</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>342</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>344</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/lcms/v4.0.0/lcms-v4.0.0.xlsx
+++ b/lcms/v4.0.0/lcms-v4.0.0.xlsx
@@ -42,128 +42,137 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
-section or suspension) used to perform this assay. For example, for a RNAseq
-assay, the parent would be the suspension, whereas, for one of the imaging
-assays, the parent would be the tissue section. If an assay comes from multiple
-parent samples then this should be a comma separated list. Example:
-HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+block, section, or suspension) used to perform the assay. For instance, in an
+RNAseq assay, the parent sample would be the suspension, while in imaging
+assays, it would be the tissue section. If the assay is derived from multiple
+parent samples, this field should contain a comma-separated list of identifiers.
+Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might begin with staining of a section and finalize with the creation of an
-OME-TIFF file. In this case the protocol would include any image processing
-steps required to create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) The specific type of dataset being produced.</t>
+        <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) Analytes are the target molecules being measured with the assay.</t>
+        <t>(Required) The analyte class which is the target molecule that the assay is
+measuring. Example: DNA</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
-protein.</t>
+        <t>(Required) Indicates whether a specific molecule or set of molecules is targeted
+for detection or measurement by the assay. Example: Yes</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) An acquisition instrument is the device that contains the signal
-detection hardware and signal processing software. Assays generate signals such
-as light of various intensities or color or signals representing the molecular
-mass.</t>
+        <t>(Required) The company that manufactures or supplies the acquisition instrument.
+An acquisition instrument is a device equipped with signal detection hardware
+and signal processing software. It captures signals produced by assays, such as
+variations in light intensity or color, or signals corresponding to molecular
+mass. If the instrument was custom-built or developed internally, enter
+"In-House". Example: Illumina</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
       <text>
-        <t>(Required) Manufacturers of an acquisition instrument may offer various versions
-(models) of that instrument with different features or sensitivities.
-Differences in features or sensitivities may be relevant to processing or
-interpretation of the data.</t>
+        <t>(Required) The specific model of the acquisition instrument, as manufacturers
+often offer various versions with differing features or sensitivities. These
+differences may be relevant to the processing or interpretation of the data. If
+the instrument was custom-built or developed internally, enter "In-House". If
+the model is unknown, enter "Unknown". Example: HiSeq 4000</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
       <text>
-        <t>(Required) How long was the source material (parent) stored, prior to this
-sample being processed.</t>
+        <t>(Required) The length of time the sample was stored prior to processing it. For
+assays performed on tissue sections, this refers to how long the tissue section
+(e.g., slide) was stored before the assay began (e.g., imaging). For assays
+performed on suspensions, such as sequencing, it refers to how long the
+suspension was stored before library construction started. Example: 12</t>
       </text>
     </comment>
     <comment ref="J1" authorId="1">
       <text>
-        <t>(Required) The time duration unit of measurement</t>
+        <t>(Required) The unit of measurement used to specify the source storage duration
+value. Example: hour</t>
       </text>
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acquisition instrument was last serviced or
-calibrated. This provides a metric for assessing drift in data capture.</t>
+        <t>The length of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture. Example:
+10</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
       <text>
-        <t>The time unit of measurement</t>
+        <t>The unit of measurement used to specify the time since acquisition instrument
+calibration value. Example: month</t>
       </text>
     </comment>
     <comment ref="M1" authorId="1">
       <text>
-        <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "./extras/contributors.tsv" or "./contributors.tsv"). This is an
-internal metadata field that is just used for ingest.</t>
+        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+this dataset. Example: ./contributors.csv</t>
       </text>
     </comment>
     <comment ref="N1" authorId="1">
       <text>
-        <t>(Required) The top level directory containing the raw and/or processed data. For
-a single dataset upload this might be "." where as for a data upload containing
-multiple datasets, this would be the directory name for the respective dataset.
-For instance, if the data is within a directory called "TEST001-RK" use syntax
-"./TEST001-RK" for this field. If there are multiple directory levels, use the
-format "./TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
-single dataset's data is stored. This is an internal metadata field that is just
-used for ingest.</t>
+        <t>(Required) The top-level directory containing the raw and/or processed data. For
+a single dataset upload, this might be represented as ".", whereas for a data
+upload containing multiple datasets, this would be the directory name for the
+respective dataset. For example, if the data is within a directory named
+"TEST001-RK", use the syntax "./TEST001-RK" for this field. If there are
+multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
+"Pass2" is the subdirectory where the single dataset's data is stored. This is
+an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
       </text>
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>(Required) The ionization approach (i.e., sample probing method) for performing
-imaging mass spectrometry.</t>
+        <t>(Required) The ionization technique used in imaging mass spectrometry, which
+refers to the method employed to probe the sample. Example: MALDI</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) MS (mass spectrometry) scan mode refers to the number of steps in the
-separation of fragments.</t>
+        <t>(Required) The mode of mass spectrometry (MS) scanning, which refers to the
+number of steps involved in the separation of fragments during the analysis.
+Example: MS1</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) The polarity of the mass analysis (positive or negative ion modes).</t>
+        <t>(Required) The polarity mode used in mass analysis, indicating whether positive
+or negative ion modes are employed. Example: Positive ion mode</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>The low value of the scanned mass-to-charge range, for MS1. (unitless)</t>
+        <t>The low value of the scanned mass-to-charge range for MS1. This value is
+unitless. Example: 100</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
@@ -173,65 +182,75 @@
     </comment>
     <comment ref="T1" authorId="1">
       <text>
-        <t>The mass resolving power m/∆m, where ∆m is defined as the full width at
-half-maximum (FWHM) for a given peak with a specified mass-to-charge (m/z).
-(unitless)</t>
+        <t>The mass resolving power, denoted as m/∆m, where ∆m is defined as the full width
+at half-maximum (FWHM) for a given peak with a specified mass-to-charge ratio
+(m/z). This measurement is unitless. Example: 60000</t>
       </text>
     </comment>
     <comment ref="U1" authorId="1">
       <text>
-        <t>The peak (m/z) used to calculate the resolving power.</t>
+        <t>The peak mass-to-charge ratio (m/z) used to calculate the resolving power.
+Example: 400.2</t>
       </text>
     </comment>
     <comment ref="V1" authorId="1">
       <text>
-        <t>Specifies which technology was used for ion mobility spectrometry. Technologies
-for measuring ion mobility: Traveling Wave Ion Mobility Spectrometry (TWIMS),
-Trapped Ion Mobility Spectrometry (TIMS), High Field Asymmetric waveform ion
-Mobility Spectrometry (FAIMS), Drift Tube Ion Mobility Spectrometry (DTIMS),
-Structures for Lossless Ion Manipulations (SLIM), and cyclic Ion Mobility
-Spectrometry (cIMS).</t>
+        <t>The specific technology employed for ion mobility spectrometry. Available
+technologies include Traveling Wave Ion Mobility Spectrometry (TWIMS), Trapped
+Ion Mobility Spectrometry (TIMS), High Field Asymmetric Waveform Ion Mobility
+Spectrometry (FAIMS), Drift Tube Ion Mobility Spectrometry (DTIMS), Structures
+for Lossless Ion Manipulations (SLIM), and cyclic Ion Mobility Spectrometry
+(cIMS). Example: TIMS</t>
       </text>
     </comment>
     <comment ref="W1" authorId="1">
       <text>
-        <t>Mode of data collection in tandem MS assays. Either DDA (Data-dependent
-acquisition), DIA (Data-independent acquisition), SRM (multiple reaction
-monitoring), or PRM (parallel reaction monitoring).</t>
+        <t>The mode of data collection used in tandem MS assays, which can include options
+such as Data-dependent acquisition (DDA), Data-independent acquisition (DIA),
+multiple reaction monitoring (SRM), or parallel reaction monitoring (PRM).
+Example: PRM</t>
       </text>
     </comment>
     <comment ref="X1" authorId="1">
       <text>
-        <t>If the samples were labeled (e.g. TMT), provide the name/ID of the label on this
-sample. Leave blank if not applicable.</t>
+        <t>The name or identifier of the chemical label used on this sample if labeling was
+applied. This is typically required for multiplexed experiments using techniques
+like Tandem Mass Tag (TMT). If sample was not labeled, this field may be left
+blank. Example: TMT126</t>
       </text>
     </comment>
     <comment ref="Y1" authorId="1">
       <text>
-        <t>The manufacturer of the instrument used for liquid chromatography.</t>
+        <t>The company that manufactures the instrument used for liquid chromatography. If
+the instrument was custom-built or developed internally, enter "In-House".
+Example: Bruker</t>
       </text>
     </comment>
     <comment ref="Z1" authorId="1">
       <text>
-        <t>The model number/name of the instrument used for liquid chromatography.</t>
+        <t>The model number or name of the instrument used for liquid chromatography.
+Example: Bruker Elute LC-MS</t>
       </text>
     </comment>
     <comment ref="AA1" authorId="1">
       <text>
-        <t>The manufacturer of the liquid chromatography column unless self-packed, pulled
-tip capillary is used.</t>
+        <t>The manufacturer of the liquid chromatography column used, unless a self-packed
+or pulled tip capillary is employed. If the column was custom-made or developed
+internally, enter "In-House". Example: Bruker</t>
       </text>
     </comment>
     <comment ref="AB1" authorId="1">
       <text>
-        <t>The model number/name of the liquid chromatography column. If it is a custom
-self-packed, pulled tip capillary is used enter “Pulled tip capilary”.</t>
+        <t>The model number or name of the liquid chromatography column used. If a custom
+self-packed, pulled tip capillary is utilized, enter "Pulled tip capillary".
+Example: Thermo Scientific Vanquish UHPLC</t>
       </text>
     </comment>
     <comment ref="AC1" authorId="1">
       <text>
-        <t>Details of the resin used for liquid chromatography, including vendor, particle
-size, pore size.</t>
+        <t>The details of the resin used in liquid chromatography, including information
+about the vendor, particle size, and pore size. Example: Thermo Fisher
+Scientific, Acclaim PepMap 100 C18, 3 µm, 100 Å</t>
       </text>
     </comment>
     <comment ref="AD1" authorId="1">
@@ -246,7 +265,8 @@
     </comment>
     <comment ref="AF1" authorId="1">
       <text>
-        <t>Liquid chromatography temperature.</t>
+        <t>The temperature at which the liquid chromatography (LC) process is conducted.
+Example: 40</t>
       </text>
     </comment>
     <comment ref="AG1" authorId="1">
@@ -261,7 +281,8 @@
     </comment>
     <comment ref="AI1" authorId="1">
       <text>
-        <t/>
+        <t>The unit of measurment for the LC inner diameter value. If the diameter is not
+specified, this field may be left blank. Example: um</t>
       </text>
     </comment>
     <comment ref="AJ1" authorId="1">
@@ -276,7 +297,7 @@
     </comment>
     <comment ref="AL1" authorId="1">
       <text>
-        <t>Liquid chromatography gradient.</t>
+        <t>The liquid chromatography (LC) gradient used in the assay. Example: 120</t>
       </text>
     </comment>
     <comment ref="AM1" authorId="1">
@@ -301,19 +322,19 @@
     </comment>
     <comment ref="AQ1" authorId="1">
       <text>
-        <t>Specifies the cell-type or functional tissue unit (FTU) that is targeted in the
-spatial profiling experiment. Leave blank if data are generated in imaging mode
-without a specific target structure.</t>
+        <t>The cell type or functional tissue unit (FTU) that is the focus of the spatial
+profiling experiment. If the data are generated in imaging mode without
+targeting a specific structure, this field may be left blank. Example: Proximal
+tubule epithelial cell</t>
       </text>
     </comment>
     <comment ref="AR1" authorId="1">
       <text>
-        <t>Specifies whether or not the analysis was performed in a spatially targeted
-manner. Spatial profiling experiments target specific tissue foci but do not
-necessarily generate images. Spatial imaging expriments collect data from a
-regular array (pixels) that can be visualized as heat maps of ion intensity at
-each location (molecular images). Leave blank if data are derived from bulk
-analysis.</t>
+        <t>The type of spatial targeting used in the analysis. Spatial profiling focuses on
+selected tissue regions without necessarily producing images, while spatial
+imaging captures data across a regular grid of pixels, enabling visualization as
+ion intensity heat maps—also referred to as molecular images. Leave this field
+blank if the data originate from bulk (non-spatial) analysis. Example: Imaging</t>
       </text>
     </comment>
     <comment ref="AS1" authorId="1">
@@ -325,8 +346,8 @@
     </comment>
     <comment ref="AT1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
@@ -335,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="496">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -361,6 +382,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000458</t>
+  </si>
+  <si>
     <t>Visium (no probes)</t>
   </si>
   <si>
@@ -397,24 +424,24 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
-    <t>CosMx</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CosMx Transcriptomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
-    <t>Seq-Scope</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
-  </si>
-  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -1810,7 +1837,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-09-25T16:07:11-07:00</t>
+    <t>2025-10-20T14:51:07-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1998,144 +2025,144 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="32">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$49</formula1>
+      <formula1>'dataset_type'!$A$1:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -2258,26 +2285,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -2295,26 +2322,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -2332,50 +2359,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -2393,34 +2420,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -2438,58 +2465,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -2507,50 +2534,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -2568,26 +2595,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -2605,10 +2632,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -2626,26 +2653,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -2663,18 +2690,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -2684,7 +2711,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3080,6 +3107,14 @@
       </c>
       <c r="B49" t="s" s="0">
         <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3097,10 +3132,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3118,50 +3153,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -3179,18 +3214,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -3214,30 +3249,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -3255,130 +3290,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3396,12 +3431,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3419,242 +3454,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3672,618 +3707,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -4301,42 +4336,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -4354,26 +4389,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -4391,90 +4426,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/lcms/v4.0.0/lcms-v4.0.0.xlsx
+++ b/lcms/v4.0.0/lcms-v4.0.0.xlsx
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="500">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -424,6 +424,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
+    <t>Virtual Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000473</t>
+  </si>
+  <si>
     <t>DBiT-seq</t>
   </si>
   <si>
@@ -679,18 +685,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
-    <t>Nucleic acid + protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>RNA + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000474</t>
+  </si>
+  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -1684,6 +1690,12 @@
     <t>https://identifiers.org/RRID:SCR_024593</t>
   </si>
   <si>
+    <t>Millipore</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008983</t>
+  </si>
+  <si>
     <t>lc_column_model</t>
   </si>
   <si>
@@ -1837,7 +1849,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-20T14:51:07-07:00</t>
+    <t>2025-11-19T14:46:46-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2025,144 +2037,144 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="32">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$50</formula1>
+      <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -2225,7 +2237,7 @@
       <formula1>'lc_instrument_vendor'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'lc_column_vendor'!$A$1:$A$6</formula1>
+      <formula1>'lc_column_vendor'!$A$1:$A$8</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="AD2:AD1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -2285,26 +2297,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -2322,26 +2334,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -2359,50 +2371,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -2420,34 +2432,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -2465,58 +2477,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -2526,7 +2538,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2534,50 +2546,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>183</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>184</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>437</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -2595,26 +2623,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -2632,10 +2660,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -2653,26 +2681,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -2690,18 +2718,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -2711,7 +2739,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3115,6 +3143,14 @@
       </c>
       <c r="B50" t="s" s="0">
         <v>103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3132,10 +3168,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3153,50 +3189,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -3214,18 +3250,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -3249,30 +3285,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -3290,130 +3326,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3431,12 +3467,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3454,242 +3490,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3707,618 +3743,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -4336,42 +4372,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -4389,26 +4425,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -4426,50 +4462,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7">
@@ -4477,39 +4513,39 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/lcms/v4.0.0/lcms-v4.0.0.xlsx
+++ b/lcms/v4.0.0/lcms-v4.0.0.xlsx
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="502">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -685,6 +685,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -1849,7 +1855,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-19T14:46:46-08:00</t>
+    <t>2025-11-20T09:47:37-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2040,127 +2046,127 @@
         <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2">
@@ -2168,7 +2174,7 @@
         <v>94</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -2177,7 +2183,7 @@
       <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$16</formula1>
+      <formula1>'analyte_class'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -2297,26 +2303,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -2334,26 +2340,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -2371,50 +2377,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -2432,34 +2438,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -2477,58 +2483,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -2546,66 +2552,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -2623,26 +2629,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -2660,10 +2666,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -2681,26 +2687,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -2718,18 +2724,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -3168,10 +3174,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3189,10 +3195,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2">
@@ -3200,39 +3206,39 @@
         <v>96</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -3250,18 +3256,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -3285,16 +3291,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2">
@@ -3302,13 +3308,13 @@
         <v>94</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -3318,7 +3324,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3450,6 +3456,14 @@
       </c>
       <c r="B16" t="s" s="0">
         <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3467,12 +3481,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3490,242 +3504,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3743,474 +3757,474 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
@@ -4218,143 +4232,143 @@
         <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -4372,42 +4386,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -4425,26 +4439,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -4462,42 +4476,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6">
@@ -4505,7 +4519,7 @@
         <v>80</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7">
@@ -4513,39 +4527,39 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/lcms/v4.0.0/lcms-v4.0.0.xlsx
+++ b/lcms/v4.0.0/lcms-v4.0.0.xlsx
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="518">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -658,6 +658,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
   </si>
   <si>
+    <t>Raman Imaging</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000475</t>
+  </si>
+  <si>
     <t>RNAseq (with probes)</t>
   </si>
   <si>
@@ -670,6 +676,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
+    <t>STARmap</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000476</t>
+  </si>
+  <si>
     <t>MPLEx</t>
   </si>
   <si>
@@ -943,6 +955,12 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Revvity</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027779</t>
+  </si>
+  <si>
     <t>Cytek Biosciences</t>
   </si>
   <si>
@@ -1072,6 +1090,12 @@
     <t>https://identifiers.org/RRID:SCR_026452</t>
   </si>
   <si>
+    <t>Opera Phenix Plus HCS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027780</t>
+  </si>
+  <si>
     <t>timsTOF Pro 2</t>
   </si>
   <si>
@@ -1114,6 +1138,12 @@
     <t>https://identifiers.org/RRID:SCR_027101</t>
   </si>
   <si>
+    <t>Orbitrap Fusion Tribrid</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020559</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -1240,6 +1270,12 @@
     <t>https://identifiers.org/RRID:SCR_027072</t>
   </si>
   <si>
+    <t>Zeiss LightSheet Z.1</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020919</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1381,6 +1417,12 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>SYNAPT G2-Si</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027782</t>
+  </si>
+  <si>
     <t>Biomark HD</t>
   </si>
   <si>
@@ -1672,6 +1714,12 @@
     <t>https://identifiers.org/RRID:SCR_024590</t>
   </si>
   <si>
+    <t>Shimadzu</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026147</t>
+  </si>
+  <si>
     <t>Agilent Technologies</t>
   </si>
   <si>
@@ -1855,7 +1903,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-20T09:47:37-08:00</t>
+    <t>2025-12-15T11:35:45-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2043,130 +2091,130 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>493</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2">
@@ -2174,13 +2222,13 @@
         <v>94</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>494</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="32">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$51</formula1>
+      <formula1>'dataset_type'!$A$1:$A$53</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$17</formula1>
@@ -2189,10 +2237,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$31</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$77</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$81</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2240,7 +2288,7 @@
       <formula1>'data_collection_mode'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Y2:Y1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'lc_instrument_vendor'!$A$1:$A$7</formula1>
+      <formula1>'lc_instrument_vendor'!$A$1:$A$8</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'lc_column_vendor'!$A$1:$A$8</formula1>
@@ -2303,26 +2351,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>398</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>400</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -2340,26 +2388,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>403</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>405</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>407</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -2377,50 +2425,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>414</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>416</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>418</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>422</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>424</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -2438,34 +2486,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>429</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>431</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>433</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -2475,7 +2523,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2483,58 +2531,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>437</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>149</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>150</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>438</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>439</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>185</v>
+        <v>454</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>186</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>440</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>441</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -2552,66 +2608,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>445</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>437</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>439</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>441</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -2629,26 +2685,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>453</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>457</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -2666,10 +2722,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>461</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -2687,26 +2743,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>453</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>457</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -2724,18 +2780,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>467</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -2745,7 +2801,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3157,6 +3213,22 @@
       </c>
       <c r="B51" t="s" s="0">
         <v>105</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3174,10 +3246,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3195,10 +3267,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>476</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2">
@@ -3206,39 +3278,39 @@
         <v>96</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>477</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>479</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>483</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>485</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -3256,18 +3328,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>489</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>491</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -3291,16 +3363,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2">
@@ -3308,13 +3380,13 @@
         <v>94</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>501</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -3332,138 +3404,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3481,12 +3553,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3496,7 +3568,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3504,242 +3576,250 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3749,7 +3829,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3757,618 +3837,650 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>329</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>175</v>
+        <v>337</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>176</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>335</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>336</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>356</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -4386,42 +4498,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4439,26 +4551,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -4476,42 +4588,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>379</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>381</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>383</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6">
@@ -4519,7 +4631,7 @@
         <v>80</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>384</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7">
@@ -4527,39 +4639,39 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>385</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>387</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>389</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>391</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>393</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
